--- a/StructureDefinition-emr-lab-service-request.xlsx
+++ b/StructureDefinition-emr-lab-service-request.xlsx
@@ -755,7 +755,7 @@
     <t>Allows for alternative encodings within a code system, and translations to other code systems.</t>
   </si>
   <si>
-    <t>http://openhie.org/fhir/ValueSet/emr-lab-order-code-vs</t>
+    <t>http://openhie.github.io/covid-19/ValueSet/emr-lab-order-code-vs</t>
   </si>
   <si>
     <t>CodeableConcept.coding</t>
@@ -842,7 +842,7 @@
     <t>ServiceRequest.subject</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://openhie.org/fhir/StructureDefinition/emr-lab-patient)
+    <t xml:space="preserve">Reference(http://openhie.github.io/covid-19/StructureDefinition/emr-lab-patient)
 </t>
   </si>
   <si>
@@ -874,7 +874,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://openhie.org/fhir/StructureDefinition/emr-lab-encounter)
+    <t xml:space="preserve">Reference(http://openhie.github.io/covid-19/StructureDefinition/emr-lab-encounter)
 </t>
   </si>
   <si>
